--- a/График дежурств 4 этаж.xlsx
+++ b/График дежурств 4 этаж.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\PycharmProjects\Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAVETTI\PycharmProjects\Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BE381-9738-4DD7-BB2C-92D1CB8CAABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -99,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
@@ -774,28 +773,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="29" width="3.77734375" customWidth="1"/>
-    <col min="30" max="30" width="3.44140625" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" customWidth="1"/>
-    <col min="32" max="32" width="3.21875" customWidth="1"/>
-    <col min="33" max="34" width="3.77734375" customWidth="1"/>
-    <col min="35" max="35" width="13.21875" customWidth="1"/>
-    <col min="36" max="36" width="4.77734375" customWidth="1"/>
-    <col min="37" max="37" width="8.77734375" customWidth="1"/>
+    <col min="3" max="29" width="3.81640625" customWidth="1"/>
+    <col min="30" max="30" width="3.453125" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" customWidth="1"/>
+    <col min="32" max="32" width="3.1796875" customWidth="1"/>
+    <col min="33" max="34" width="3.81640625" customWidth="1"/>
+    <col min="35" max="35" width="13.1796875" customWidth="1"/>
+    <col min="36" max="36" width="4.81640625" customWidth="1"/>
+    <col min="37" max="37" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
@@ -833,7 +832,7 @@
       <c r="AG1" s="55"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,7 +897,7 @@
       <c r="BE2" s="50"/>
       <c r="BF2" s="51"/>
     </row>
-    <row r="3" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="4">
         <v>1</v>
@@ -993,7 +992,7 @@
       <c r="AG3" s="58"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1032,7 @@
       <c r="AG4" s="58"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1074,7 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
     </row>
-    <row r="6" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1116,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="11"/>
     </row>
-    <row r="7" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1158,7 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="11"/>
     </row>
-    <row r="8" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1200,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1242,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="11"/>
     </row>
-    <row r="10" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
@@ -1285,7 +1284,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="11"/>
     </row>
-    <row r="11" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1326,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="11"/>
     </row>
-    <row r="12" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
@@ -1369,7 +1368,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="11"/>
     </row>
-    <row r="13" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1410,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="11"/>
     </row>
-    <row r="14" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="11"/>
     </row>
-    <row r="15" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
@@ -1495,9 +1494,9 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="11"/>
     </row>
-    <row r="16" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54">
         <v>415</v>
@@ -1535,7 +1534,7 @@
       <c r="AG16" s="58"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1574,7 @@
       <c r="AG17" s="58"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1614,7 @@
       <c r="AG18" s="58"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1654,7 @@
       <c r="AG19" s="58"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1694,7 @@
       <c r="AG20" s="58"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1736,7 @@
       <c r="AI21" s="35"/>
       <c r="AJ21" s="52"/>
     </row>
-    <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1776,7 @@
       <c r="AG22" s="58"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1816,7 @@
       <c r="AG23" s="58"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="AG24" s="58"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +1896,7 @@
       <c r="AG25" s="58"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +1936,7 @@
       <c r="AG26" s="58"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
@@ -1977,7 +1976,7 @@
       <c r="AG27" s="58"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
@@ -2017,7 +2016,7 @@
       <c r="AG28" s="58"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>20</v>
       </c>
@@ -2057,9 +2056,9 @@
       <c r="AG29" s="58"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B30" s="54">
         <v>414</v>
@@ -2097,7 +2096,7 @@
       <c r="AG30" s="58"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="AH31" s="1"/>
       <c r="AK31" s="21"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2178,7 @@
       <c r="AH32" s="1"/>
       <c r="AK32" s="21"/>
     </row>
-    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2218,7 @@
       <c r="AG33" s="58"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="45"/>
       <c r="B34" s="56"/>
       <c r="C34" s="59"/>
@@ -2255,7 +2254,7 @@
       <c r="AG34" s="58"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
       <c r="B35" s="56"/>
       <c r="C35" s="23"/>
@@ -2290,7 +2289,7 @@
       <c r="AF35" s="25"/>
       <c r="AG35" s="65"/>
     </row>
-    <row r="36" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
       <c r="C36" s="23"/>
@@ -2329,7 +2328,7 @@
       <c r="AF36" s="25"/>
       <c r="AG36" s="65"/>
     </row>
-    <row r="37" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
       <c r="C37" s="23"/>
@@ -2368,7 +2367,7 @@
       <c r="AF37" s="25"/>
       <c r="AG37" s="65"/>
     </row>
-    <row r="38" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
       <c r="C38" s="23"/>
@@ -2403,7 +2402,7 @@
       <c r="AF38" s="25"/>
       <c r="AG38" s="65"/>
     </row>
-    <row r="39" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="23"/>
@@ -2438,7 +2437,7 @@
       <c r="AF39" s="25"/>
       <c r="AG39" s="65"/>
     </row>
-    <row r="40" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="23"/>
@@ -2473,7 +2472,7 @@
       <c r="AF40" s="25"/>
       <c r="AG40" s="65"/>
     </row>
-    <row r="41" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="23"/>
@@ -2508,7 +2507,7 @@
       <c r="AF41" s="25"/>
       <c r="AG41" s="65"/>
     </row>
-    <row r="42" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="47"/>
       <c r="B42" s="48"/>
       <c r="C42" s="26"/>
@@ -2543,7 +2542,7 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="65"/>
     </row>
-    <row r="43" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="47"/>
       <c r="B43" s="48"/>
       <c r="C43" s="9"/>
@@ -2578,7 +2577,7 @@
       <c r="AF43" s="25"/>
       <c r="AG43" s="65"/>
     </row>
-    <row r="44" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="9"/>
@@ -2613,7 +2612,7 @@
       <c r="AF44" s="25"/>
       <c r="AG44" s="65"/>
     </row>
-    <row r="45" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="9"/>
@@ -2648,7 +2647,7 @@
       <c r="AF45" s="9"/>
       <c r="AG45" s="66"/>
     </row>
-    <row r="46" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="27"/>
       <c r="C46" s="9"/>
@@ -2684,7 +2683,7 @@
       <c r="AG46" s="66"/>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="9"/>
       <c r="L47" s="10"/>
@@ -2692,7 +2691,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2727,7 +2726,7 @@
       <c r="AF48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -2762,7 +2761,7 @@
       <c r="AG49" s="67"/>
       <c r="AH49" s="29"/>
     </row>
-    <row r="50" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
@@ -2797,7 +2796,7 @@
       <c r="AG50" s="67"/>
       <c r="AH50" s="29"/>
     </row>
-    <row r="51" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -2832,7 +2831,7 @@
       <c r="AG51" s="67"/>
       <c r="AH51" s="29"/>
     </row>
-    <row r="52" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -2867,7 +2866,7 @@
       <c r="AG52" s="67"/>
       <c r="AH52" s="29"/>
     </row>
-    <row r="53" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
@@ -2902,7 +2901,7 @@
       <c r="AG53" s="67"/>
       <c r="AH53" s="29"/>
     </row>
-    <row r="54" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
@@ -2937,7 +2936,7 @@
       <c r="AG54" s="67"/>
       <c r="AH54" s="29"/>
     </row>
-    <row r="55" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
@@ -2972,7 +2971,7 @@
       <c r="AG55" s="67"/>
       <c r="AH55" s="29"/>
     </row>
-    <row r="56" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
@@ -3007,7 +3006,7 @@
       <c r="AG56" s="67"/>
       <c r="AH56" s="29"/>
     </row>
-    <row r="57" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -3042,7 +3041,7 @@
       <c r="AG57" s="67"/>
       <c r="AH57" s="29"/>
     </row>
-    <row r="58" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -3077,7 +3076,7 @@
       <c r="AG58" s="67"/>
       <c r="AH58" s="29"/>
     </row>
-    <row r="59" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -3112,7 +3111,7 @@
       <c r="AG59" s="67"/>
       <c r="AH59" s="29"/>
     </row>
-    <row r="60" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -3147,7 +3146,7 @@
       <c r="AG60" s="67"/>
       <c r="AH60" s="29"/>
     </row>
-    <row r="61" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -3182,7 +3181,7 @@
       <c r="AG61" s="67"/>
       <c r="AH61" s="29"/>
     </row>
-    <row r="62" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -3218,7 +3217,7 @@
       <c r="AG62" s="67"/>
       <c r="AH62" s="29"/>
     </row>
-    <row r="63" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -3254,7 +3253,7 @@
       <c r="AG63" s="67"/>
       <c r="AH63" s="29"/>
     </row>
-    <row r="64" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3289,7 +3288,7 @@
       <c r="AF64" s="1"/>
       <c r="AH64" s="1"/>
     </row>
-    <row r="65" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3324,7 +3323,7 @@
       <c r="AF65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3359,7 +3358,7 @@
       <c r="AF66" s="1"/>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3394,7 +3393,7 @@
       <c r="AF67" s="1"/>
       <c r="AH67" s="1"/>
     </row>
-    <row r="68" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3429,7 +3428,7 @@
       <c r="AF68" s="1"/>
       <c r="AH68" s="1"/>
     </row>
-    <row r="69" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3464,7 +3463,7 @@
       <c r="AF69" s="1"/>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3499,7 +3498,7 @@
       <c r="AF70" s="1"/>
       <c r="AH70" s="1"/>
     </row>
-    <row r="71" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3534,7 +3533,7 @@
       <c r="AF71" s="1"/>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3569,7 +3568,7 @@
       <c r="AF72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3604,7 +3603,7 @@
       <c r="AF73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3639,7 +3638,7 @@
       <c r="AF74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3674,7 +3673,7 @@
       <c r="AF75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3709,7 +3708,7 @@
       <c r="AF76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3744,7 +3743,7 @@
       <c r="AF77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3779,7 +3778,7 @@
       <c r="AF78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3814,7 +3813,7 @@
       <c r="AF79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3849,7 +3848,7 @@
       <c r="AF80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3884,7 +3883,7 @@
       <c r="AF81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3919,7 +3918,7 @@
       <c r="AF82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3954,7 +3953,7 @@
       <c r="AF83" s="1"/>
       <c r="AH83" s="1"/>
     </row>
-    <row r="84" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3989,7 +3988,7 @@
       <c r="AF84" s="1"/>
       <c r="AH84" s="1"/>
     </row>
-    <row r="85" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4024,7 +4023,7 @@
       <c r="AF85" s="1"/>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4059,7 +4058,7 @@
       <c r="AF86" s="1"/>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4094,7 +4093,7 @@
       <c r="AF87" s="1"/>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4129,7 +4128,7 @@
       <c r="AF88" s="1"/>
       <c r="AH88" s="1"/>
     </row>
-    <row r="89" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4165,7 +4164,7 @@
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
     </row>
-    <row r="90" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4201,7 +4200,7 @@
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
     </row>
-    <row r="91" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4237,7 +4236,7 @@
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
     </row>
-    <row r="92" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4273,7 +4272,7 @@
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
     </row>
-    <row r="93" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4309,7 +4308,7 @@
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
     </row>
-    <row r="94" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4345,7 +4344,7 @@
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
     </row>
-    <row r="95" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4381,7 +4380,7 @@
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
     </row>
-    <row r="96" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4417,909 +4416,909 @@
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:AF2"/>
@@ -5331,1016 +5330,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6348,1016 +6347,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
